--- a/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">急性出血性结膜炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -416,10 +434,16 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>2139</v>
+      </c>
+      <c r="I2" t="n">
+        <v>692.80168417753</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +458,16 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>1672</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1142.15652118441</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +482,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>2011</v>
+      </c>
+      <c r="I4" t="n">
+        <v>835.506461906833</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +506,16 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>2230</v>
+      </c>
+      <c r="I5" t="n">
+        <v>636.45942967975</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +530,16 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>2468</v>
+      </c>
+      <c r="I6" t="n">
+        <v>408.831170778028</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +554,16 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>2788</v>
+      </c>
+      <c r="I7" t="n">
+        <v>86.5370525712988</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +578,16 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>2561</v>
+      </c>
+      <c r="I8" t="n">
+        <v>150.922622860007</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -542,10 +602,16 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>2796</v>
+      </c>
+      <c r="I9" t="n">
+        <v>82.8792699992164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -560,10 +626,16 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>2549</v>
+      </c>
+      <c r="I10" t="n">
+        <v>319.888558733338</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +650,16 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>2298</v>
+      </c>
+      <c r="I11" t="n">
+        <v>560.898144901611</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +674,16 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>2538</v>
+      </c>
+      <c r="I12" t="n">
+        <v>322.359858624112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -614,10 +698,16 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>2583</v>
+      </c>
+      <c r="I13" t="n">
+        <v>271.596016349014</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +722,16 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>2305</v>
+      </c>
+      <c r="I14" t="n">
+        <v>540.792472077009</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -650,10 +746,16 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>1873</v>
+      </c>
+      <c r="I15" t="n">
+        <v>972.108242404825</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -668,10 +770,16 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>2885</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-38.4635742677847</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -686,10 +794,16 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>2808</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39.3875024466861</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -704,10 +818,16 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>2548</v>
+      </c>
+      <c r="I18" t="n">
+        <v>299.824360878994</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -722,10 +842,16 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>2467</v>
+      </c>
+      <c r="I19" t="n">
+        <v>380.720861435518</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -740,10 +866,16 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>2566</v>
+      </c>
+      <c r="I20" t="n">
+        <v>274.51228489639</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -758,10 +890,16 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>2016</v>
+      </c>
+      <c r="I21" t="n">
+        <v>831.98824077895</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -776,10 +914,16 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>2321</v>
+      </c>
+      <c r="I22" t="n">
+        <v>526.476604419486</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -794,10 +938,16 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>1994</v>
+      </c>
+      <c r="I23" t="n">
+        <v>853.049879915193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +962,16 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>2218</v>
+      </c>
+      <c r="I24" t="n">
+        <v>629.11788810229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -830,10 +986,16 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>2513</v>
+      </c>
+      <c r="I25" t="n">
+        <v>333.86698024961</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -848,10 +1010,16 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>1811</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1035.48632245618</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +1034,16 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>1561</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1285.46055718554</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -884,10 +1058,16 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>2559</v>
+      </c>
+      <c r="I28" t="n">
+        <v>287.523152239965</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -902,10 +1082,16 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>2455</v>
+      </c>
+      <c r="I29" t="n">
+        <v>391.559595589955</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -920,10 +1106,16 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>2509</v>
+      </c>
+      <c r="I30" t="n">
+        <v>337.578249864674</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -938,10 +1130,16 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>2905</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-58.4264633608818</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -956,10 +1154,16 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>2629</v>
+      </c>
+      <c r="I32" t="n">
+        <v>217.258821240139</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -974,10 +1178,16 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>2267</v>
+      </c>
+      <c r="I33" t="n">
+        <v>579.588636607084</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -992,10 +1202,16 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>2273</v>
+      </c>
+      <c r="I34" t="n">
+        <v>573.562775205806</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1010,10 +1226,16 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>2009</v>
+      </c>
+      <c r="I35" t="n">
+        <v>837.544445983188</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1028,10 +1250,16 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>1738</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1108.54760922402</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2831.80168417753</v>
+        <v>2831.80744105705</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -440,7 +440,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>692.80168417753</v>
+        <v>692.807441057051</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2814.15652118441</v>
+        <v>2814.5580706807</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -464,7 +464,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>1142.15652118441</v>
+        <v>1142.5580706807</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -475,7 +475,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2846.50646190683</v>
+        <v>2845.94287046877</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -488,7 +488,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>835.506461906833</v>
+        <v>834.942870468768</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2866.45942967975</v>
+        <v>2865.75995052111</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -512,7 +512,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>636.45942967975</v>
+        <v>635.759950521115</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2876.83117077803</v>
+        <v>2876.06650458092</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -536,7 +536,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>408.831170778028</v>
+        <v>408.066504580918</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2874.5370525713</v>
+        <v>2873.7780111035</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -560,7 +560,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>86.5370525712988</v>
+        <v>85.778011103499</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2711.92262286001</v>
+        <v>2712.03034850914</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -584,7 +584,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>150.922622860007</v>
+        <v>151.030348509138</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2878.87926999922</v>
+        <v>2878.08837609523</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -608,7 +608,7 @@
         <v>2796</v>
       </c>
       <c r="I9" t="n">
-        <v>82.8792699992164</v>
+        <v>82.0883760952347</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2868.88855873334</v>
+        <v>2868.18162366664</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -632,7 +632,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>319.888558733338</v>
+        <v>319.181623666639</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2858.89814490161</v>
+        <v>2858.27138000677</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -656,7 +656,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>560.898144901611</v>
+        <v>560.27138000677</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2860.35985862411</v>
+        <v>2859.71694808994</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -680,7 +680,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>322.359858624112</v>
+        <v>321.716948089937</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2854.59601634901</v>
+        <v>2853.99971785039</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -704,7 +704,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>271.596016349014</v>
+        <v>270.99971785039</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2845.79247207701</v>
+        <v>2845.27237553549</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -728,7 +728,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>540.792472077009</v>
+        <v>540.272375535489</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2845.10824240482</v>
+        <v>2844.60544252557</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -752,7 +752,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>972.108242404825</v>
+        <v>971.605442525566</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2846.53642573222</v>
+        <v>2845.9772107134</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -776,7 +776,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>-38.4635742677847</v>
+        <v>-39.022789286601</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -787,7 +787,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2847.38750244669</v>
+        <v>2846.81614459304</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -800,7 +800,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>39.3875024466861</v>
+        <v>38.8161445930427</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2847.82436087899</v>
+        <v>2847.24695558744</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -824,7 +824,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>299.824360878994</v>
+        <v>299.24695558744</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2847.72086143552</v>
+        <v>2847.14495912207</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -848,7 +848,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>380.720861435518</v>
+        <v>380.144959122073</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2840.51228489639</v>
+        <v>2840.04723304065</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -872,7 +872,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>274.51228489639</v>
+        <v>274.047233040646</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2847.98824077895</v>
+        <v>2847.40287272777</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -896,7 +896,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>831.98824077895</v>
+        <v>831.402872727774</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2847.47660441949</v>
+        <v>2846.90531975567</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -920,7 +920,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>526.476604419486</v>
+        <v>525.905319755671</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2847.04987991519</v>
+        <v>2846.48544508182</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -944,7 +944,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>853.049879915193</v>
+        <v>852.485445081815</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2847.11788810229</v>
+        <v>2846.55179051001</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -968,7 +968,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>629.11788810229</v>
+        <v>628.551790510011</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -979,7 +979,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2846.86698024961</v>
+        <v>2846.30525208823</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -992,7 +992,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>333.86698024961</v>
+        <v>333.30525208823</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2846.48632245618</v>
+        <v>2845.93120800687</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1016,7 +1016,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1035.48632245618</v>
+        <v>1034.93120800687</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2846.46055718554</v>
+        <v>2845.90611305376</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1040,7 +1040,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>1285.46055718554</v>
+        <v>1284.90611305376</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2846.52315223997</v>
+        <v>2845.96566136612</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1064,7 +1064,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>287.523152239965</v>
+        <v>286.965661366124</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2846.55959558996</v>
+        <v>2846.0013127602</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1088,7 +1088,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>391.559595589955</v>
+        <v>391.0013127602</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2846.57824986467</v>
+        <v>2846.01956439479</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1112,7 +1112,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>337.578249864674</v>
+        <v>337.019564394795</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,7 +1123,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2846.57353663912</v>
+        <v>2846.01497625844</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1136,7 +1136,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>-58.4264633608818</v>
+        <v>-58.985023741564</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2846.25882124014</v>
+        <v>2845.70799744222</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1160,7 +1160,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>217.258821240139</v>
+        <v>216.707997442219</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2846.58863660708</v>
+        <v>2846.02923732778</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1184,7 +1184,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>579.588636607084</v>
+        <v>579.029237327783</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2846.56277520581</v>
+        <v>2846.00452836791</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1208,7 +1208,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>573.562775205806</v>
+        <v>573.00452836791</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2846.54444598319</v>
+        <v>2845.98663697847</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1232,7 +1232,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>837.544445983188</v>
+        <v>836.986636978465</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2846.54760922402</v>
+        <v>2845.98968243134</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1256,7 +1256,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>1108.54760922402</v>
+        <v>1107.98968243134</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2831.80744105705</v>
+        <v>2831.80168417753</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -440,7 +440,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>692.807441057051</v>
+        <v>692.80168417753</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2814.5580706807</v>
+        <v>2814.15652118441</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -464,7 +464,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>1142.5580706807</v>
+        <v>1142.15652118441</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -475,7 +475,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2845.94287046877</v>
+        <v>2846.50646190683</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -488,7 +488,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>834.942870468768</v>
+        <v>835.506461906833</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2865.75995052111</v>
+        <v>2866.45942967975</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -512,7 +512,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>635.759950521115</v>
+        <v>636.45942967975</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2876.06650458092</v>
+        <v>2876.83117077803</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -536,7 +536,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>408.066504580918</v>
+        <v>408.831170778028</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2873.7780111035</v>
+        <v>2874.5370525713</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -560,7 +560,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>85.778011103499</v>
+        <v>86.5370525712988</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2712.03034850914</v>
+        <v>2711.92262286001</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -584,7 +584,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>151.030348509138</v>
+        <v>150.922622860007</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2878.08837609523</v>
+        <v>2878.87926999922</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -608,7 +608,7 @@
         <v>2796</v>
       </c>
       <c r="I9" t="n">
-        <v>82.0883760952347</v>
+        <v>82.8792699992164</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2868.18162366664</v>
+        <v>2868.88855873334</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -632,7 +632,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>319.181623666639</v>
+        <v>319.888558733338</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2858.27138000677</v>
+        <v>2858.89814490161</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -656,7 +656,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>560.27138000677</v>
+        <v>560.898144901611</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2859.71694808994</v>
+        <v>2860.35985862411</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -680,7 +680,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>321.716948089937</v>
+        <v>322.359858624112</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2853.99971785039</v>
+        <v>2854.59601634901</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -704,7 +704,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>270.99971785039</v>
+        <v>271.596016349014</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2845.27237553549</v>
+        <v>2845.79247207701</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -728,7 +728,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>540.272375535489</v>
+        <v>540.792472077009</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2844.60544252557</v>
+        <v>2845.10824240482</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -752,7 +752,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>971.605442525566</v>
+        <v>972.108242404825</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2845.9772107134</v>
+        <v>2846.53642573222</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -776,7 +776,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>-39.022789286601</v>
+        <v>-38.4635742677847</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -787,7 +787,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2846.81614459304</v>
+        <v>2847.38750244669</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -800,7 +800,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8161445930427</v>
+        <v>39.3875024466861</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2847.24695558744</v>
+        <v>2847.82436087899</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -824,7 +824,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>299.24695558744</v>
+        <v>299.824360878994</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2847.14495912207</v>
+        <v>2847.72086143552</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -848,7 +848,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>380.144959122073</v>
+        <v>380.720861435518</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2840.04723304065</v>
+        <v>2840.51228489639</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -872,7 +872,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>274.047233040646</v>
+        <v>274.51228489639</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2847.40287272777</v>
+        <v>2847.98824077895</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -896,7 +896,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>831.402872727774</v>
+        <v>831.98824077895</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2846.90531975567</v>
+        <v>2847.47660441949</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -920,7 +920,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>525.905319755671</v>
+        <v>526.476604419486</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2846.48544508182</v>
+        <v>2847.04987991519</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -944,7 +944,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>852.485445081815</v>
+        <v>853.049879915193</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2846.55179051001</v>
+        <v>2847.11788810229</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -968,7 +968,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>628.551790510011</v>
+        <v>629.11788810229</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -979,7 +979,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2846.30525208823</v>
+        <v>2846.86698024961</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -992,7 +992,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>333.30525208823</v>
+        <v>333.86698024961</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2845.93120800687</v>
+        <v>2846.48632245618</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1016,7 +1016,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1034.93120800687</v>
+        <v>1035.48632245618</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2845.90611305376</v>
+        <v>2846.46055718554</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1040,7 +1040,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>1284.90611305376</v>
+        <v>1285.46055718554</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2845.96566136612</v>
+        <v>2846.52315223997</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1064,7 +1064,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>286.965661366124</v>
+        <v>287.523152239965</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2846.0013127602</v>
+        <v>2846.55959558996</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1088,7 +1088,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>391.0013127602</v>
+        <v>391.559595589955</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2846.01956439479</v>
+        <v>2846.57824986467</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1112,7 +1112,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>337.019564394795</v>
+        <v>337.578249864674</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,7 +1123,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2846.01497625844</v>
+        <v>2846.57353663912</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1136,7 +1136,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>-58.985023741564</v>
+        <v>-58.4264633608818</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2845.70799744222</v>
+        <v>2846.25882124014</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1160,7 +1160,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>216.707997442219</v>
+        <v>217.258821240139</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2846.02923732778</v>
+        <v>2846.58863660708</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1184,7 +1184,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>579.029237327783</v>
+        <v>579.588636607084</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2846.00452836791</v>
+        <v>2846.56277520581</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1208,7 +1208,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>573.00452836791</v>
+        <v>573.562775205806</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2845.98663697847</v>
+        <v>2846.54444598319</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1232,7 +1232,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>836.986636978465</v>
+        <v>837.544445983188</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2845.98968243134</v>
+        <v>2846.54760922402</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1256,7 +1256,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>1107.98968243134</v>
+        <v>1108.54760922402</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
@@ -427,12 +427,20 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2831.80168417753</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>2315.44860639802</v>
+      </c>
+      <c r="C2" t="n">
+        <v>613.20468821775</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-287.908809905308</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4017.6925245783</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4918.80602270136</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -440,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>692.80168417753</v>
+        <v>176.448606398024</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,12 +459,20 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2814.15652118441</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>1968.51288259218</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-77569.0734394474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-119673.728287935</v>
+      </c>
+      <c r="E3" t="n">
+        <v>81506.0992046317</v>
+      </c>
+      <c r="F3" t="n">
+        <v>123610.754053119</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -464,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>1142.15652118441</v>
+        <v>296.512882592179</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -475,12 +491,20 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2846.50646190683</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>2789.43576433971</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-6386101.22316593</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-9768175.64229432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6391680.09469461</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9773754.513823</v>
+      </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -488,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>835.506461906833</v>
+        <v>778.435764339712</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -499,12 +523,20 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2866.45942967975</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>2626.63062814211</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-303667946.938866</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-464421438.20043</v>
+      </c>
+      <c r="E5" t="n">
+        <v>303673200.200122</v>
+      </c>
+      <c r="F5" t="n">
+        <v>464426691.461686</v>
+      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -512,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>636.45942967975</v>
+        <v>396.630628142113</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,12 +555,20 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2876.83117077803</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>2447.64011214438</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-17378964608.5923</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-26578834045.9571</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17378969503.8725</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26578838941.2374</v>
+      </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -536,10 +576,10 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>408.831170778028</v>
+        <v>-20.3598878556172</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -547,12 +587,20 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2874.5370525713</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>2071.71196126065</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-804780895071.787</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1230806167773.51</v>
+      </c>
+      <c r="E7" t="n">
+        <v>804780899215.211</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1230806171916.93</v>
+      </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -560,10 +608,10 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>86.5370525712988</v>
+        <v>-716.28803873935</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -571,12 +619,20 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2711.92262286001</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>1569.64426214283</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-33101388247513.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-50624204713056.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33101388250652.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50624204716195.8</v>
+      </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -584,10 +640,10 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>150.922622860007</v>
+        <v>-991.355737857171</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -595,12 +651,20 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2878.87926999922</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>1192.03630764053</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1147003587826219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1754190609819972</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1147003587828603</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1754190609822356</v>
+      </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -608,10 +672,10 @@
         <v>2796</v>
       </c>
       <c r="I9" t="n">
-        <v>82.8792699992164</v>
+        <v>-1603.96369235947</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -619,12 +683,20 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2868.88855873334</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>5267.21427808336</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-250313559965845952</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-382821554407437248</v>
+      </c>
+      <c r="E10" t="n">
+        <v>250313559965856512</v>
+      </c>
+      <c r="F10" t="n">
+        <v>382821554407447744</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -632,7 +704,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>319.888558733338</v>
+        <v>2718.21427808336</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,12 +715,20 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2858.89814490161</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>4002.39761874766</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9701261880365228032</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-14836799705384493056</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9701261880365236224</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14836799705384501248</v>
+      </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -656,7 +736,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>560.898144901611</v>
+        <v>1704.39761874766</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -667,12 +747,20 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2860.35985862411</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>4082.75052707486</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-430737272100747214848</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-658755810389677834240</v>
+      </c>
+      <c r="E12" t="n">
+        <v>430737272100747214848</v>
+      </c>
+      <c r="F12" t="n">
+        <v>658755810389677834240</v>
+      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -680,7 +768,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>322.359858624112</v>
+        <v>1544.75052707486</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -691,12 +779,20 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2854.59601634901</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>3267.80158302128</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-16033644215045300682752</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-24521342759285249015808</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16033644215045300682752</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24521342759285249015808</v>
+      </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -704,7 +800,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>271.596016349014</v>
+        <v>684.801583021276</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -715,12 +811,20 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2845.79247207701</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>2559.59852303117</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-784667713966897526472704</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1200045710648365425885184</v>
+      </c>
+      <c r="E14" t="n">
+        <v>784667713966897526472704</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1200045710648365425885184</v>
+      </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -728,7 +832,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>540.792472077009</v>
+        <v>254.598523031166</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,12 +843,20 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2845.10824240482</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>2175.31497160895</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-31089567953589011646251008</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-47547391086093942690676736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31089567953589011646251008</v>
+      </c>
+      <c r="F15" t="n">
+        <v>47547391086093942690676736</v>
+      </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -752,7 +864,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>972.108242404825</v>
+        <v>302.314971608949</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,12 +875,20 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2846.53642573222</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>3081.40730150504</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2302760308452246312150106112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3521767981046311318821273600</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2302760308452246312150106112</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3521767981046311318821273600</v>
+      </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -776,10 +896,10 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>-38.4635742677847</v>
+        <v>196.407301505036</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -787,12 +907,20 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2847.38750244669</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>2900.562624031</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-82793688356978542030838824960</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-126622019503329686342007259136</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82793688356978542030838824960</v>
+      </c>
+      <c r="F17" t="n">
+        <v>126622019503329686342007259136</v>
+      </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -800,7 +928,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>39.3875024466861</v>
+        <v>92.5626240310039</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,12 +939,20 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2847.82436087899</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>2701.98492947749</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3959701651787722575872870318080</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-6055841088009347197671514832896</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3959701651787722575872870318080</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6055841088009347197671514832896</v>
+      </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -824,7 +960,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>299.824360878994</v>
+        <v>153.984929477493</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,12 +971,20 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2847.72086143552</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>2286.22223580762</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-112105906681008336950366048354304</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-171451188899770941785027003809792</v>
+      </c>
+      <c r="E19" t="n">
+        <v>112105906681008336950366048354304</v>
+      </c>
+      <c r="F19" t="n">
+        <v>171451188899770941785027003809792</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -848,10 +992,10 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>380.720861435518</v>
+        <v>-180.777764192379</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -859,12 +1003,20 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2840.51228489639</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>1731.59205546657</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3475627615607125099601801942925312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5315513736170228786501483120033792</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3475627615607125099601801942925312</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5315513736170228786501483120033792</v>
+      </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -872,10 +1024,10 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>274.51228489639</v>
+        <v>-834.407944533425</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -883,12 +1035,20 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2847.98824077895</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>1314.59098527572</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-76576841344612076634823051096096768</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-117114172476935759152246097503584256</v>
+      </c>
+      <c r="E21" t="n">
+        <v>76576841344612076634823051096096768</v>
+      </c>
+      <c r="F21" t="n">
+        <v>117114172476935759152246097503584256</v>
+      </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -896,10 +1056,10 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>831.98824077895</v>
+        <v>-701.409014724281</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -907,12 +1067,20 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2847.47660441949</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>5806.84840219171</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-11523580273038464971640927181827211264</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-17623795183390611261775509929861316608</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11523580273038464971640927181827211264</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17623795183390611261775509929861316608</v>
+      </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -920,7 +1088,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>526.476604419486</v>
+        <v>3485.84840219171</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,12 +1099,20 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2847.04987991519</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>4411.02543175916</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-380060911028963313110321172436519747584</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-581253004229836887253774541641440296960</v>
+      </c>
+      <c r="E23" t="n">
+        <v>380060911028963313110321172436519747584</v>
+      </c>
+      <c r="F23" t="n">
+        <v>581253004229836887253774541641440296960</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -944,7 +1120,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>853.049879915193</v>
+        <v>2417.02543175916</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -955,12 +1131,20 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2847.11788810229</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>4498.14521536902</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-11120676572811590622654801984728067997696</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-17007607147798754939781523355691936382976</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11120676572811590622654801984728067997696</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17007607147798754939781523355691936382976</v>
+      </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -968,7 +1152,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>629.11788810229</v>
+        <v>2280.14521536902</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -979,12 +1163,20 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2846.86698024961</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>3599.14258118479</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-267066561570270537746708422423272398782464</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-408443059355353078037743364886970866073600</v>
+      </c>
+      <c r="E25" t="n">
+        <v>267066561570270537746708422423272398782464</v>
+      </c>
+      <c r="F25" t="n">
+        <v>408443059355353078037743364886970866073600</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -992,7 +1184,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>333.86698024961</v>
+        <v>1086.14258118479</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1003,12 +1195,20 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2846.48632245618</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>2822.69434602914</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-10451172752748212750504161980844381329948672</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-15983689413923895440081856034982106123730944</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10451172752748212750504161980844381329948672</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15983689413923895440081856034982106123730944</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1216,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1035.48632245618</v>
+        <v>1011.69434602914</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,12 +1227,20 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2846.46055718554</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>2398.19592721379</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-327780725929453616709734735165915289746407424</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-501297360887009117560753338002452188783181824</v>
+      </c>
+      <c r="E27" t="n">
+        <v>327780725929453616709734735165915289746407424</v>
+      </c>
+      <c r="F27" t="n">
+        <v>501297360887009117560753338002452188783181824</v>
+      </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1248,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>1285.46055718554</v>
+        <v>837.195927213789</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,12 +1259,20 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2846.52315223997</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>3396.12341016205</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-18748563289873745458876487521675221625139625984</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-28673453178145620419241552019310076578079178752</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18748563289873745458876487521675221625139625984</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28673453178145620419241552019310076578079178752</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1280,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>287.523152239965</v>
+        <v>837.123410162046</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,12 +1291,20 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2846.55959558996</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>3195.87482226716</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-450593265679773121531161024661876773602455453696</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-689122932040074710812547060772569276382902747136</v>
+      </c>
+      <c r="E29" t="n">
+        <v>450593265679773121531161024661876773602455453696</v>
+      </c>
+      <c r="F29" t="n">
+        <v>689122932040074710812547060772569276382902747136</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1312,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>391.559595589955</v>
+        <v>740.874822267159</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,12 +1323,20 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2846.57824986467</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>2976.21901791012</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-15331828016466338559164182741336272579567160393728</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-23448007506952241877902062448120467900429911457792</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15331828016466338559164182741336272579567160393728</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23448007506952241877902062448120467900429911457792</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1344,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>337.578249864674</v>
+        <v>467.219017910119</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,12 +1355,20 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2846.57353663912</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>2517.53858012429</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-416559597248728621984982216820520590791774451007488</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-637072927826409931624320122426792903760774975979520</v>
+      </c>
+      <c r="E31" t="n">
+        <v>416559597248728621984982216820520590791774451007488</v>
+      </c>
+      <c r="F31" t="n">
+        <v>637072927826409931624320122426792903760774975979520</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1376,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>-58.4264633608818</v>
+        <v>-387.461419875709</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1147,12 +1387,20 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2846.25882124014</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>1906.25174662652</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-10074031088660843323836900774577101107093844665565184</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-15406901012618614679698661126654430270755757644316672</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10074031088660843323836900774577101107093844665565184</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15406901012618614679698661126654430270755757644316672</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1408,10 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>217.258821240139</v>
+        <v>-722.74825337348</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1171,12 +1419,20 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2846.58863660708</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>1446.78346040678</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-177888153006435585136735684340390014980544986066452480</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-272056452930009172135424458839163281197600445011329024</v>
+      </c>
+      <c r="E33" t="n">
+        <v>177888153006435585136735684340390014980544986066452480</v>
+      </c>
+      <c r="F33" t="n">
+        <v>272056452930009172135424458839163281197600445011329024</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1184,10 +1440,10 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>579.588636607084</v>
+        <v>-820.216539593221</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1195,12 +1451,20 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2846.56277520581</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>6388.99879552824</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-25820255650534663927568995063927265773954277301219753984</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-39488673345078542999448609414396011242411571824092512256</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25820255650534663927568995063927265773954277301219753984</v>
+      </c>
+      <c r="F34" t="n">
+        <v>39488673345078542999448609414396011242411571824092512256</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1472,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>573.562775205806</v>
+        <v>4115.99879552824</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,12 +1483,20 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2846.54444598319</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>4851.90748683137</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-595218578285947643529340481007549600030637793648691904512</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-910308260498154210772359155824659100942842112417273479168</v>
+      </c>
+      <c r="E35" t="n">
+        <v>595218578285947643529340481007549600030637793648691904512</v>
+      </c>
+      <c r="F35" t="n">
+        <v>910308260498154210772359155824659100942842112417273479168</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1504,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>837.544445983188</v>
+        <v>2842.90748683137</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1243,12 +1515,20 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2846.54760922402</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>4946.38862031827</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-20185017378259206364476015865130111448061061380359667580928</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-30870320127845299923625290092244017563219734492731288846336</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20185017378259206364476015865130111448061061380359667580928</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30870320127845299923625290092244017563219734492731288846336</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1536,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>1108.54760922402</v>
+        <v>3208.38862031827</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
@@ -462,16 +462,16 @@
         <v>1968.51288259218</v>
       </c>
       <c r="C3" t="n">
-        <v>-77569.0734394474</v>
+        <v>-71529.1559858278</v>
       </c>
       <c r="D3" t="n">
-        <v>-119673.728287935</v>
+        <v>-110436.471671063</v>
       </c>
       <c r="E3" t="n">
-        <v>81506.0992046317</v>
+        <v>75466.1817510121</v>
       </c>
       <c r="F3" t="n">
-        <v>123610.754053119</v>
+        <v>114373.497436248</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>2789.43576433971</v>
       </c>
       <c r="C4" t="n">
-        <v>-6386101.22316593</v>
+        <v>-4672114.32014739</v>
       </c>
       <c r="D4" t="n">
-        <v>-9768175.64229432</v>
+        <v>-7146858.88048138</v>
       </c>
       <c r="E4" t="n">
-        <v>6391680.09469461</v>
+        <v>4677693.19167607</v>
       </c>
       <c r="F4" t="n">
-        <v>9773754.513823</v>
+        <v>7152437.75201006</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>2626.63062814211</v>
       </c>
       <c r="C5" t="n">
-        <v>-303667946.938866</v>
+        <v>-205278610.992847</v>
       </c>
       <c r="D5" t="n">
-        <v>-464421438.20043</v>
+        <v>-313947933.971935</v>
       </c>
       <c r="E5" t="n">
-        <v>303673200.200122</v>
+        <v>205283864.254103</v>
       </c>
       <c r="F5" t="n">
-        <v>464426691.461686</v>
+        <v>313953187.233192</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>2447.64011214438</v>
       </c>
       <c r="C6" t="n">
-        <v>-17378964608.5923</v>
+        <v>-8447675968.04705</v>
       </c>
       <c r="D6" t="n">
-        <v>-26578834045.9571</v>
+        <v>-12919606792.3417</v>
       </c>
       <c r="E6" t="n">
-        <v>17378969503.8725</v>
+        <v>8447680863.32727</v>
       </c>
       <c r="F6" t="n">
-        <v>26578838941.2374</v>
+        <v>12919611687.6219</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>2071.71196126065</v>
       </c>
       <c r="C7" t="n">
-        <v>-804780895071.787</v>
+        <v>-309714309340.557</v>
       </c>
       <c r="D7" t="n">
-        <v>-1230806167773.51</v>
+        <v>-473667162157.228</v>
       </c>
       <c r="E7" t="n">
-        <v>804780899215.211</v>
+        <v>309714313483.981</v>
       </c>
       <c r="F7" t="n">
-        <v>1230806171916.93</v>
+        <v>473667166300.652</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1569.64426214283</v>
       </c>
       <c r="C8" t="n">
-        <v>-33101388247513.1</v>
+        <v>-8488215694837.04</v>
       </c>
       <c r="D8" t="n">
-        <v>-50624204713056.5</v>
+        <v>-12981605659295.7</v>
       </c>
       <c r="E8" t="n">
-        <v>33101388250652.4</v>
+        <v>8488215697976.33</v>
       </c>
       <c r="F8" t="n">
-        <v>50624204716195.8</v>
+        <v>12981605662435</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1192.03630764053</v>
       </c>
       <c r="C9" t="n">
-        <v>-1147003587826219</v>
+        <v>-238366448034177</v>
       </c>
       <c r="D9" t="n">
-        <v>-1754190609819972</v>
+        <v>-364550023449115</v>
       </c>
       <c r="E9" t="n">
-        <v>1147003587828603</v>
+        <v>238366448036561</v>
       </c>
       <c r="F9" t="n">
-        <v>1754190609822356</v>
+        <v>364550023451499</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>5267.21427808336</v>
       </c>
       <c r="C10" t="n">
-        <v>-250313559965845952</v>
+        <v>-36629665738419848</v>
       </c>
       <c r="D10" t="n">
-        <v>-382821554407437248</v>
+        <v>-56020239484112032</v>
       </c>
       <c r="E10" t="n">
-        <v>250313559965856512</v>
+        <v>36629665738430376</v>
       </c>
       <c r="F10" t="n">
-        <v>382821554407447744</v>
+        <v>56020239484122560</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>4002.39761874766</v>
       </c>
       <c r="C11" t="n">
-        <v>-9701261880365228032</v>
+        <v>-803840914776022528</v>
       </c>
       <c r="D11" t="n">
-        <v>-14836799705384493056</v>
+        <v>-1229368590869944832</v>
       </c>
       <c r="E11" t="n">
-        <v>9701261880365236224</v>
+        <v>803840914776030464</v>
       </c>
       <c r="F11" t="n">
-        <v>14836799705384501248</v>
+        <v>1229368590869953024</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>4082.75052707486</v>
       </c>
       <c r="C12" t="n">
-        <v>-430737272100747214848</v>
+        <v>-21260118990070513664</v>
       </c>
       <c r="D12" t="n">
-        <v>-658755810389677834240</v>
+        <v>-32514546154736136192</v>
       </c>
       <c r="E12" t="n">
-        <v>430737272100747214848</v>
+        <v>21260118990070521856</v>
       </c>
       <c r="F12" t="n">
-        <v>658755810389677834240</v>
+        <v>32514546154736144384</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>3267.80158302128</v>
       </c>
       <c r="C13" t="n">
-        <v>-16033644215045300682752</v>
+        <v>-492030670870418489344</v>
       </c>
       <c r="D13" t="n">
-        <v>-24521342759285249015808</v>
+        <v>-752495974506723278848</v>
       </c>
       <c r="E13" t="n">
-        <v>16033644215045300682752</v>
+        <v>492030670870418489344</v>
       </c>
       <c r="F13" t="n">
-        <v>24521342759285249015808</v>
+        <v>752495974506723278848</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>2559.59852303117</v>
       </c>
       <c r="C14" t="n">
-        <v>-784667713966897526472704</v>
+        <v>-11854380108958322917376</v>
       </c>
       <c r="D14" t="n">
-        <v>-1200045710648365425885184</v>
+        <v>-18129709874555736031232</v>
       </c>
       <c r="E14" t="n">
-        <v>784667713966897526472704</v>
+        <v>11854380108958322917376</v>
       </c>
       <c r="F14" t="n">
-        <v>1200045710648365425885184</v>
+        <v>18129709874555736031232</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>2175.31497160895</v>
       </c>
       <c r="C15" t="n">
-        <v>-31089567953589011646251008</v>
+        <v>-200143998706281875505152</v>
       </c>
       <c r="D15" t="n">
-        <v>-47547391086093942690676736</v>
+        <v>-306093831674611269369856</v>
       </c>
       <c r="E15" t="n">
-        <v>31089567953589011646251008</v>
+        <v>200143998706281875505152</v>
       </c>
       <c r="F15" t="n">
-        <v>47547391086093942690676736</v>
+        <v>306093831674611269369856</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>3081.40730150504</v>
       </c>
       <c r="C16" t="n">
-        <v>-2302760308452246312150106112</v>
+        <v>-7297752104052414354554880</v>
       </c>
       <c r="D16" t="n">
-        <v>-3521767981046311318821273600</v>
+        <v>-11160948709828830859100160</v>
       </c>
       <c r="E16" t="n">
-        <v>2302760308452246312150106112</v>
+        <v>7297752104052414354554880</v>
       </c>
       <c r="F16" t="n">
-        <v>3521767981046311318821273600</v>
+        <v>11160948709828830859100160</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>2900.562624031</v>
       </c>
       <c r="C17" t="n">
-        <v>-82793688356978542030838824960</v>
+        <v>-142097518206892554523246592</v>
       </c>
       <c r="D17" t="n">
-        <v>-126622019503329686342007259136</v>
+        <v>-217319400534368408794300416</v>
       </c>
       <c r="E17" t="n">
-        <v>82793688356978542030838824960</v>
+        <v>142097518206892554523246592</v>
       </c>
       <c r="F17" t="n">
-        <v>126622019503329686342007259136</v>
+        <v>217319400534368408794300416</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>2701.98492947749</v>
       </c>
       <c r="C18" t="n">
-        <v>-3959701651787722575872870318080</v>
+        <v>-3170987268666658672460431360</v>
       </c>
       <c r="D18" t="n">
-        <v>-6055841088009347197671514832896</v>
+        <v>-4849606530955768778522099712</v>
       </c>
       <c r="E18" t="n">
-        <v>3959701651787722575872870318080</v>
+        <v>3170987268666658672460431360</v>
       </c>
       <c r="F18" t="n">
-        <v>6055841088009347197671514832896</v>
+        <v>4849606530955768778522099712</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>2286.22223580762</v>
       </c>
       <c r="C19" t="n">
-        <v>-112105906681008336950366048354304</v>
+        <v>-55556307916404180146079137792</v>
       </c>
       <c r="D19" t="n">
-        <v>-171451188899770941785027003809792</v>
+        <v>-84966040819354073165599866880</v>
       </c>
       <c r="E19" t="n">
-        <v>112105906681008336950366048354304</v>
+        <v>55556307916404180146079137792</v>
       </c>
       <c r="F19" t="n">
-        <v>171451188899770941785027003809792</v>
+        <v>84966040819354073165599866880</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1731.59205546657</v>
       </c>
       <c r="C20" t="n">
-        <v>-3475627615607125099601801942925312</v>
+        <v>-912545711663770842648148967424</v>
       </c>
       <c r="D20" t="n">
-        <v>-5315513736170228786501483120033792</v>
+        <v>-1395618231208206390363716321280</v>
       </c>
       <c r="E20" t="n">
-        <v>3475627615607125099601801942925312</v>
+        <v>912545711663770842648148967424</v>
       </c>
       <c r="F20" t="n">
-        <v>5315513736170228786501483120033792</v>
+        <v>1395618231208206390363716321280</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1314.59098527572</v>
       </c>
       <c r="C21" t="n">
-        <v>-76576841344612076634823051096096768</v>
+        <v>-13783532796727697679220574519296</v>
       </c>
       <c r="D21" t="n">
-        <v>-117114172476935759152246097503584256</v>
+        <v>-21080094307272523444858424131584</v>
       </c>
       <c r="E21" t="n">
-        <v>76576841344612076634823051096096768</v>
+        <v>13783532796727697679220574519296</v>
       </c>
       <c r="F21" t="n">
-        <v>117114172476935759152246097503584256</v>
+        <v>21080094307272523444858424131584</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>5806.84840219171</v>
       </c>
       <c r="C22" t="n">
-        <v>-11523580273038464971640927181827211264</v>
+        <v>-1351450232712207532063327491457024</v>
       </c>
       <c r="D22" t="n">
-        <v>-17623795183390611261775509929861316608</v>
+        <v>-2066864770976722286253640605761536</v>
       </c>
       <c r="E22" t="n">
-        <v>11523580273038464971640927181827211264</v>
+        <v>1351450232712207532063327491457024</v>
       </c>
       <c r="F22" t="n">
-        <v>17623795183390611261775509929861316608</v>
+        <v>2066864770976722286253640605761536</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>4411.02543175916</v>
       </c>
       <c r="C23" t="n">
-        <v>-380060911028963313110321172436519747584</v>
+        <v>-16790211483167048458006176645251072</v>
       </c>
       <c r="D23" t="n">
-        <v>-581253004229836887253774541641440296960</v>
+        <v>-25678412546617870869146733174063104</v>
       </c>
       <c r="E23" t="n">
-        <v>380060911028963313110321172436519747584</v>
+        <v>16790211483167048458006176645251072</v>
       </c>
       <c r="F23" t="n">
-        <v>581253004229836887253774541641440296960</v>
+        <v>25678412546617870869146733174063104</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>4498.14521536902</v>
       </c>
       <c r="C24" t="n">
-        <v>-11120676572811590622654801984728067997696</v>
+        <v>-358822246459071997066249665425440768</v>
       </c>
       <c r="D24" t="n">
-        <v>-17007607147798754939781523355691936382976</v>
+        <v>-548771269779280976450819175821082624</v>
       </c>
       <c r="E24" t="n">
-        <v>11120676572811590622654801984728067997696</v>
+        <v>358822246459071997066249665425440768</v>
       </c>
       <c r="F24" t="n">
-        <v>17007607147798754939781523355691936382976</v>
+        <v>548771269779280976450819175821082624</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>3599.14258118479</v>
       </c>
       <c r="C25" t="n">
-        <v>-267066561570270537746708422423272398782464</v>
+        <v>-4141458444304324343331644811390222336</v>
       </c>
       <c r="D25" t="n">
-        <v>-408443059355353078037743364886970866073600</v>
+        <v>-6333814114499837658719743340514902016</v>
       </c>
       <c r="E25" t="n">
-        <v>267066561570270537746708422423272398782464</v>
+        <v>4141458444304324343331644811390222336</v>
       </c>
       <c r="F25" t="n">
-        <v>408443059355353078037743364886970866073600</v>
+        <v>6333814114499837658719743340514902016</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>2822.69434602914</v>
       </c>
       <c r="C26" t="n">
-        <v>-10451172752748212750504161980844381329948672</v>
+        <v>-35870903834997130273461534968822890496</v>
       </c>
       <c r="D26" t="n">
-        <v>-15983689413923895440081856034982106123730944</v>
+        <v>-54859813291724534156390477970987286528</v>
       </c>
       <c r="E26" t="n">
-        <v>10451172752748212750504161980844381329948672</v>
+        <v>35870903834997130273461534968822890496</v>
       </c>
       <c r="F26" t="n">
-        <v>15983689413923895440081856034982106123730944</v>
+        <v>54859813291724534156390477970987286528</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>2398.19592721379</v>
       </c>
       <c r="C27" t="n">
-        <v>-327780725929453616709734735165915289746407424</v>
+        <v>-355790394012570108639884301542849773568</v>
       </c>
       <c r="D27" t="n">
-        <v>-501297360887009117560753338002452188783181824</v>
+        <v>-544134451596269962401253361147994701824</v>
       </c>
       <c r="E27" t="n">
-        <v>327780725929453616709734735165915289746407424</v>
+        <v>355790394012570108639884301542849773568</v>
       </c>
       <c r="F27" t="n">
-        <v>501297360887009117560753338002452188783181824</v>
+        <v>544134451596269962401253361147994701824</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>3396.12341016205</v>
       </c>
       <c r="C28" t="n">
-        <v>-18748563289873745458876487521675221625139625984</v>
+        <v>-13040811968232147199762144378357884649472</v>
       </c>
       <c r="D28" t="n">
-        <v>-28673453178145620419241552019310076578079178752</v>
+        <v>-19944200821940607805582546156805349703680</v>
       </c>
       <c r="E28" t="n">
-        <v>18748563289873745458876487521675221625139625984</v>
+        <v>13040811968232147199762144378357884649472</v>
       </c>
       <c r="F28" t="n">
-        <v>28673453178145620419241552019310076578079178752</v>
+        <v>19944200821940607805582546156805349703680</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>3195.87482226716</v>
       </c>
       <c r="C29" t="n">
-        <v>-450593265679773121531161024661876773602455453696</v>
+        <v>-206802700426187763968260055774193487183872</v>
       </c>
       <c r="D29" t="n">
-        <v>-689122932040074710812547060772569276382902747136</v>
+        <v>-316277437161655757367051836396659464470528</v>
       </c>
       <c r="E29" t="n">
-        <v>450593265679773121531161024661876773602455453696</v>
+        <v>206802700426187763968260055774193487183872</v>
       </c>
       <c r="F29" t="n">
-        <v>689122932040074710812547060772569276382902747136</v>
+        <v>316277437161655757367051836396659464470528</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>2976.21901791012</v>
       </c>
       <c r="C30" t="n">
-        <v>-15331828016466338559164182741336272579567160393728</v>
+        <v>-4029852233645795708218935860948343923408896</v>
       </c>
       <c r="D30" t="n">
-        <v>-23448007506952241877902062448120467900429911457792</v>
+        <v>-6163127144718212110633491500134371673767936</v>
       </c>
       <c r="E30" t="n">
-        <v>15331828016466338559164182741336272579567160393728</v>
+        <v>4029852233645795708218935860948343923408896</v>
       </c>
       <c r="F30" t="n">
-        <v>23448007506952241877902062448120467900429911457792</v>
+        <v>6163127144718212110633491500134371673767936</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>2517.53858012429</v>
       </c>
       <c r="C31" t="n">
-        <v>-416559597248728621984982216820520590791774451007488</v>
+        <v>-86680690988179130328262851617088127300009984</v>
       </c>
       <c r="D31" t="n">
-        <v>-637072927826409931624320122426792903760774975979520</v>
+        <v>-132566677033928627121276722591885519918989312</v>
       </c>
       <c r="E31" t="n">
-        <v>416559597248728621984982216820520590791774451007488</v>
+        <v>86680690988179130328262851617088127300009984</v>
       </c>
       <c r="F31" t="n">
-        <v>637072927826409931624320122426792903760774975979520</v>
+        <v>132566677033928627121276722591885519918989312</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1906.25174662652</v>
       </c>
       <c r="C32" t="n">
-        <v>-10074031088660843323836900774577101107093844665565184</v>
+        <v>-1392843700585301187003670171342213463318462464</v>
       </c>
       <c r="D32" t="n">
-        <v>-15406901012618614679698661126654430270755757644316672</v>
+        <v>-2130170617114878314417704296529854580064780288</v>
       </c>
       <c r="E32" t="n">
-        <v>10074031088660843323836900774577101107093844665565184</v>
+        <v>1392843700585301187003670171342213463318462464</v>
       </c>
       <c r="F32" t="n">
-        <v>15406901012618614679698661126654430270755757644316672</v>
+        <v>2130170617114878314417704296529854580064780288</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1446.78346040678</v>
       </c>
       <c r="C33" t="n">
-        <v>-177888153006435585136735684340390014980544986066452480</v>
+        <v>-21091649209353525421734418433391816259833692160</v>
       </c>
       <c r="D33" t="n">
-        <v>-272056452930009172135424458839163281197600445011329024</v>
+        <v>-32256893859217030981146091232625396517955436544</v>
       </c>
       <c r="E33" t="n">
-        <v>177888153006435585136735684340390014980544986066452480</v>
+        <v>21091649209353525421734418433391816259833692160</v>
       </c>
       <c r="F33" t="n">
-        <v>272056452930009172135424458839163281197600445011329024</v>
+        <v>32256893859217030981146091232625396517955436544</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>6388.99879552824</v>
       </c>
       <c r="C34" t="n">
-        <v>-25820255650534663927568995063927265773954277301219753984</v>
+        <v>-1441128678810997126122459355481855839076475731968</v>
       </c>
       <c r="D34" t="n">
-        <v>-39488673345078542999448609414396011242411571824092512256</v>
+        <v>-2204016118818470085576593587924032048681581543424</v>
       </c>
       <c r="E34" t="n">
-        <v>25820255650534663927568995063927265773954277301219753984</v>
+        <v>1441128678810997126122459355481855839076475731968</v>
       </c>
       <c r="F34" t="n">
-        <v>39488673345078542999448609414396011242411571824092512256</v>
+        <v>2204016118818470085576593587924032048681581543424</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>4851.90748683137</v>
       </c>
       <c r="C35" t="n">
-        <v>-595218578285947643529340481007549600030637793648691904512</v>
+        <v>-12145889617771235023042255547028503187046096961536</v>
       </c>
       <c r="D35" t="n">
-        <v>-910308260498154210772359155824659100942842112417273479168</v>
+        <v>-18575535195818927867749957571099754088489207988224</v>
       </c>
       <c r="E35" t="n">
-        <v>595218578285947643529340481007549600030637793648691904512</v>
+        <v>12145889617771235023042255547028503187046096961536</v>
       </c>
       <c r="F35" t="n">
-        <v>910308260498154210772359155824659100942842112417273479168</v>
+        <v>18575535195818927867749957571099754088489207988224</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>4946.38862031827</v>
       </c>
       <c r="C36" t="n">
-        <v>-20185017378259206364476015865130111448061061380359667580928</v>
+        <v>-321732433296795922674817557661535575044362919215104</v>
       </c>
       <c r="D36" t="n">
-        <v>-30870320127845299923625290092244017563219734492731288846336</v>
+        <v>-492047295539127068979212693164132409648325779783680</v>
       </c>
       <c r="E36" t="n">
-        <v>20185017378259206364476015865130111448061061380359667580928</v>
+        <v>321732433296795922674817557661535575044362919215104</v>
       </c>
       <c r="F36" t="n">
-        <v>30870320127845299923625290092244017563219734492731288846336</v>
+        <v>492047295539127068979212693164132409648325779783680</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Acute hemorrhagic conjunctivitis.xlsx
@@ -427,20 +427,12 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2315.44860639802</v>
-      </c>
-      <c r="C2" t="n">
-        <v>613.20468821775</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-287.908809905308</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4017.6925245783</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4918.80602270136</v>
-      </c>
+        <v>2831.80168417753</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -448,7 +440,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>176.448606398024</v>
+        <v>692.80168417753</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,20 +451,12 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1968.51288259218</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-71529.1559858278</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-110436.471671063</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75466.1817510121</v>
-      </c>
-      <c r="F3" t="n">
-        <v>114373.497436248</v>
-      </c>
+        <v>2814.15652118441</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -480,7 +464,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>296.512882592179</v>
+        <v>1142.15652118441</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,20 +475,12 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2789.43576433971</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-4672114.32014739</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-7146858.88048138</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4677693.19167607</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7152437.75201006</v>
-      </c>
+        <v>2846.50646190683</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -512,7 +488,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>778.435764339712</v>
+        <v>835.506461906833</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,20 +499,12 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2626.63062814211</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-205278610.992847</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-313947933.971935</v>
-      </c>
-      <c r="E5" t="n">
-        <v>205283864.254103</v>
-      </c>
-      <c r="F5" t="n">
-        <v>313953187.233192</v>
-      </c>
+        <v>2866.45942967975</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -544,7 +512,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>396.630628142113</v>
+        <v>636.45942967975</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,20 +523,12 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2447.64011214438</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-8447675968.04705</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-12919606792.3417</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8447680863.32727</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12919611687.6219</v>
-      </c>
+        <v>2876.83117077803</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -576,10 +536,10 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.3598878556172</v>
+        <v>408.831170778028</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,20 +547,12 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2071.71196126065</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-309714309340.557</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-473667162157.228</v>
-      </c>
-      <c r="E7" t="n">
-        <v>309714313483.981</v>
-      </c>
-      <c r="F7" t="n">
-        <v>473667166300.652</v>
-      </c>
+        <v>2874.5370525713</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -608,10 +560,10 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>-716.28803873935</v>
+        <v>86.5370525712988</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,20 +571,12 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1569.64426214283</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-8488215694837.04</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-12981605659295.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8488215697976.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12981605662435</v>
-      </c>
+        <v>2711.92262286001</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -640,10 +584,10 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>-991.355737857171</v>
+        <v>150.922622860007</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,20 +595,12 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1192.03630764053</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-238366448034177</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-364550023449115</v>
-      </c>
-      <c r="E9" t="n">
-        <v>238366448036561</v>
-      </c>
-      <c r="F9" t="n">
-        <v>364550023451499</v>
-      </c>
+        <v>2878.87926999922</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,10 +608,10 @@
         <v>2796</v>
       </c>
       <c r="I9" t="n">
-        <v>-1603.96369235947</v>
+        <v>82.8792699992164</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,20 +619,12 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>5267.21427808336</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-36629665738419848</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-56020239484112032</v>
-      </c>
-      <c r="E10" t="n">
-        <v>36629665738430376</v>
-      </c>
-      <c r="F10" t="n">
-        <v>56020239484122560</v>
-      </c>
+        <v>2868.88855873334</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,7 +632,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>2718.21427808336</v>
+        <v>319.888558733338</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,20 +643,12 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4002.39761874766</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-803840914776022528</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-1229368590869944832</v>
-      </c>
-      <c r="E11" t="n">
-        <v>803840914776030464</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1229368590869953024</v>
-      </c>
+        <v>2858.89814490161</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,7 +656,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1704.39761874766</v>
+        <v>560.898144901611</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,20 +667,12 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4082.75052707486</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-21260118990070513664</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-32514546154736136192</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21260118990070521856</v>
-      </c>
-      <c r="F12" t="n">
-        <v>32514546154736144384</v>
-      </c>
+        <v>2860.35985862411</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +680,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1544.75052707486</v>
+        <v>322.359858624112</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,20 +691,12 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3267.80158302128</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-492030670870418489344</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-752495974506723278848</v>
-      </c>
-      <c r="E13" t="n">
-        <v>492030670870418489344</v>
-      </c>
-      <c r="F13" t="n">
-        <v>752495974506723278848</v>
-      </c>
+        <v>2854.59601634901</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -800,7 +704,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>684.801583021276</v>
+        <v>271.596016349014</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,20 +715,12 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2559.59852303117</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-11854380108958322917376</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-18129709874555736031232</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11854380108958322917376</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18129709874555736031232</v>
-      </c>
+        <v>2845.79247207701</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -832,7 +728,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>254.598523031166</v>
+        <v>540.792472077009</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,20 +739,12 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2175.31497160895</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-200143998706281875505152</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-306093831674611269369856</v>
-      </c>
-      <c r="E15" t="n">
-        <v>200143998706281875505152</v>
-      </c>
-      <c r="F15" t="n">
-        <v>306093831674611269369856</v>
-      </c>
+        <v>2845.10824240482</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -864,7 +752,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>302.314971608949</v>
+        <v>972.108242404825</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,20 +763,12 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3081.40730150504</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-7297752104052414354554880</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-11160948709828830859100160</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7297752104052414354554880</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11160948709828830859100160</v>
-      </c>
+        <v>2846.53642573222</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -896,10 +776,10 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>196.407301505036</v>
+        <v>-38.4635742677847</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,20 +787,12 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2900.562624031</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-142097518206892554523246592</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-217319400534368408794300416</v>
-      </c>
-      <c r="E17" t="n">
-        <v>142097518206892554523246592</v>
-      </c>
-      <c r="F17" t="n">
-        <v>217319400534368408794300416</v>
-      </c>
+        <v>2847.38750244669</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -928,7 +800,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>92.5626240310039</v>
+        <v>39.3875024466861</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,20 +811,12 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2701.98492947749</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-3170987268666658672460431360</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-4849606530955768778522099712</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3170987268666658672460431360</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4849606530955768778522099712</v>
-      </c>
+        <v>2847.82436087899</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,7 +824,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>153.984929477493</v>
+        <v>299.824360878994</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,20 +835,12 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2286.22223580762</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-55556307916404180146079137792</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-84966040819354073165599866880</v>
-      </c>
-      <c r="E19" t="n">
-        <v>55556307916404180146079137792</v>
-      </c>
-      <c r="F19" t="n">
-        <v>84966040819354073165599866880</v>
-      </c>
+        <v>2847.72086143552</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,10 +848,10 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>-180.777764192379</v>
+        <v>380.720861435518</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1003,20 +859,12 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1731.59205546657</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-912545711663770842648148967424</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-1395618231208206390363716321280</v>
-      </c>
-      <c r="E20" t="n">
-        <v>912545711663770842648148967424</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1395618231208206390363716321280</v>
-      </c>
+        <v>2840.51228489639</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,10 +872,10 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>-834.407944533425</v>
+        <v>274.51228489639</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1035,20 +883,12 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1314.59098527572</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-13783532796727697679220574519296</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-21080094307272523444858424131584</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13783532796727697679220574519296</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21080094307272523444858424131584</v>
-      </c>
+        <v>2847.98824077895</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +896,10 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>-701.409014724281</v>
+        <v>831.98824077895</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1067,20 +907,12 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>5806.84840219171</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1351450232712207532063327491457024</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-2066864770976722286253640605761536</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1351450232712207532063327491457024</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2066864770976722286253640605761536</v>
-      </c>
+        <v>2847.47660441949</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +920,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3485.84840219171</v>
+        <v>526.476604419486</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,20 +931,12 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4411.02543175916</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-16790211483167048458006176645251072</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-25678412546617870869146733174063104</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16790211483167048458006176645251072</v>
-      </c>
-      <c r="F23" t="n">
-        <v>25678412546617870869146733174063104</v>
-      </c>
+        <v>2847.04987991519</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +944,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2417.02543175916</v>
+        <v>853.049879915193</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,20 +955,12 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>4498.14521536902</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-358822246459071997066249665425440768</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-548771269779280976450819175821082624</v>
-      </c>
-      <c r="E24" t="n">
-        <v>358822246459071997066249665425440768</v>
-      </c>
-      <c r="F24" t="n">
-        <v>548771269779280976450819175821082624</v>
-      </c>
+        <v>2847.11788810229</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +968,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>2280.14521536902</v>
+        <v>629.11788810229</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,20 +979,12 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3599.14258118479</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-4141458444304324343331644811390222336</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-6333814114499837658719743340514902016</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4141458444304324343331644811390222336</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6333814114499837658719743340514902016</v>
-      </c>
+        <v>2846.86698024961</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +992,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>1086.14258118479</v>
+        <v>333.86698024961</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,20 +1003,12 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2822.69434602914</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-35870903834997130273461534968822890496</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-54859813291724534156390477970987286528</v>
-      </c>
-      <c r="E26" t="n">
-        <v>35870903834997130273461534968822890496</v>
-      </c>
-      <c r="F26" t="n">
-        <v>54859813291724534156390477970987286528</v>
-      </c>
+        <v>2846.48632245618</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1016,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1011.69434602914</v>
+        <v>1035.48632245618</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,20 +1027,12 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2398.19592721379</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-355790394012570108639884301542849773568</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-544134451596269962401253361147994701824</v>
-      </c>
-      <c r="E27" t="n">
-        <v>355790394012570108639884301542849773568</v>
-      </c>
-      <c r="F27" t="n">
-        <v>544134451596269962401253361147994701824</v>
-      </c>
+        <v>2846.46055718554</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1040,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>837.195927213789</v>
+        <v>1285.46055718554</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,20 +1051,12 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3396.12341016205</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-13040811968232147199762144378357884649472</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-19944200821940607805582546156805349703680</v>
-      </c>
-      <c r="E28" t="n">
-        <v>13040811968232147199762144378357884649472</v>
-      </c>
-      <c r="F28" t="n">
-        <v>19944200821940607805582546156805349703680</v>
-      </c>
+        <v>2846.52315223997</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1064,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>837.123410162046</v>
+        <v>287.523152239965</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,20 +1075,12 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3195.87482226716</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-206802700426187763968260055774193487183872</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-316277437161655757367051836396659464470528</v>
-      </c>
-      <c r="E29" t="n">
-        <v>206802700426187763968260055774193487183872</v>
-      </c>
-      <c r="F29" t="n">
-        <v>316277437161655757367051836396659464470528</v>
-      </c>
+        <v>2846.55959558996</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1088,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>740.874822267159</v>
+        <v>391.559595589955</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,20 +1099,12 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2976.21901791012</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-4029852233645795708218935860948343923408896</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-6163127144718212110633491500134371673767936</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4029852233645795708218935860948343923408896</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6163127144718212110633491500134371673767936</v>
-      </c>
+        <v>2846.57824986467</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1112,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>467.219017910119</v>
+        <v>337.578249864674</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,20 +1123,12 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2517.53858012429</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-86680690988179130328262851617088127300009984</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-132566677033928627121276722591885519918989312</v>
-      </c>
-      <c r="E31" t="n">
-        <v>86680690988179130328262851617088127300009984</v>
-      </c>
-      <c r="F31" t="n">
-        <v>132566677033928627121276722591885519918989312</v>
-      </c>
+        <v>2846.57353663912</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1136,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>-387.461419875709</v>
+        <v>-58.4264633608818</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,20 +1147,12 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1906.25174662652</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-1392843700585301187003670171342213463318462464</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-2130170617114878314417704296529854580064780288</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1392843700585301187003670171342213463318462464</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2130170617114878314417704296529854580064780288</v>
-      </c>
+        <v>2846.25882124014</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,10 +1160,10 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>-722.74825337348</v>
+        <v>217.258821240139</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,20 +1171,12 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1446.78346040678</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-21091649209353525421734418433391816259833692160</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-32256893859217030981146091232625396517955436544</v>
-      </c>
-      <c r="E33" t="n">
-        <v>21091649209353525421734418433391816259833692160</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32256893859217030981146091232625396517955436544</v>
-      </c>
+        <v>2846.58863660708</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,10 +1184,10 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>-820.216539593221</v>
+        <v>579.588636607084</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,20 +1195,12 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6388.99879552824</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-1441128678810997126122459355481855839076475731968</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-2204016118818470085576593587924032048681581543424</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1441128678810997126122459355481855839076475731968</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2204016118818470085576593587924032048681581543424</v>
-      </c>
+        <v>2846.56277520581</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1208,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4115.99879552824</v>
+        <v>573.562775205806</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,20 +1219,12 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4851.90748683137</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-12145889617771235023042255547028503187046096961536</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-18575535195818927867749957571099754088489207988224</v>
-      </c>
-      <c r="E35" t="n">
-        <v>12145889617771235023042255547028503187046096961536</v>
-      </c>
-      <c r="F35" t="n">
-        <v>18575535195818927867749957571099754088489207988224</v>
-      </c>
+        <v>2846.54444598319</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1232,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2842.90748683137</v>
+        <v>837.544445983188</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,20 +1243,12 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4946.38862031827</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-321732433296795922674817557661535575044362919215104</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-492047295539127068979212693164132409648325779783680</v>
-      </c>
-      <c r="E36" t="n">
-        <v>321732433296795922674817557661535575044362919215104</v>
-      </c>
-      <c r="F36" t="n">
-        <v>492047295539127068979212693164132409648325779783680</v>
-      </c>
+        <v>2846.54760922402</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1256,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>3208.38862031827</v>
+        <v>1108.54760922402</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
